--- a/data/stats/LaMelo Ball.xlsx
+++ b/data/stats/LaMelo Ball.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1050,6 +1050,56 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>vs Milwaukee Bucks</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>16 nov. 2024</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>G
+115-114</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>26</v>
+      </c>
+      <c r="E14" t="n">
+        <v>9</v>
+      </c>
+      <c r="F14" t="n">
+        <v>6</v>
+      </c>
+      <c r="G14" t="n">
+        <v>36</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>6-13</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>1-7</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>35.0%</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>

--- a/data/stats/LaMelo Ball.xlsx
+++ b/data/stats/LaMelo Ball.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1100,6 +1100,56 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>@ Cleveland Cavaliers</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>18 nov. 2024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>P
+128-114</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>31</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>12</v>
+      </c>
+      <c r="G15" t="n">
+        <v>35</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>6-14</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>5-15</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>37.9%</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>100.0%</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
